--- a/MicroPhy/E3_results.xlsx
+++ b/MicroPhy/E3_results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennisjakob/ownCloud/MPI/R_workbench/MarMic_MSc/MicroPhy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8317DFE6-1164-4044-912F-AB8658633FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCEFA70-4E1B-E344-8EB3-16EDBC53AC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CBF64E77-2A48-3E43-A70E-86B1F5E4A51F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{0D59B5AF-854D-494B-894F-C19A2EEAC8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="E3_results" localSheetId="0">Sheet1!$A$1:$L$49</definedName>
+    <definedName name="E3_results" localSheetId="0">Sheet1!$A$1:$O$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +35,12 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{32B5997F-F097-2A40-B1E7-061A7579F7BF}" name="E3_results" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{9C7A8CEC-1C1A-104D-BAE2-33678FC18B5D}" name="E3_results" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/dennisjakob/ownCloud/MPI/R_workbench/MarMic_MSc/MicroPhy/E3_results.txt">
-      <textFields count="12">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="44">
   <si>
     <t>sample</t>
   </si>
@@ -93,6 +96,15 @@
   </si>
   <si>
     <t>c(NO3-)</t>
+  </si>
+  <si>
+    <t>c(NH4+) sample</t>
+  </si>
+  <si>
+    <t>c(NO2-) sample</t>
+  </si>
+  <si>
+    <t>c(NO3-) sample</t>
   </si>
   <si>
     <t>DL101</t>
@@ -235,7 +247,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="E3_results" connectionId="1" xr16:uid="{9974C28D-EC27-7846-BBCC-2F91CB2FD12C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="E3_results" connectionId="1" xr16:uid="{7DF95FB4-C61B-4B48-8AB1-996FC5D32790}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,8 +546,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CB7086-BBC9-1948-8BA9-CD419C672111}">
-  <dimension ref="A1:L49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709B5D87-37F4-EA45-B15A-ED499F7F9AD7}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,9 +565,11 @@
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,10 +606,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -604,19 +627,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>1.5</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -630,10 +653,19 @@
       <c r="L2">
         <v>3.5695899314395301</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>-272.27538878542401</v>
+      </c>
+      <c r="N2">
+        <v>763.71620428561096</v>
+      </c>
+      <c r="O2">
+        <v>17.847949657197599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>41</v>
@@ -642,19 +674,19 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>1.5</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -668,10 +700,19 @@
       <c r="L3">
         <v>-1.2137593714931401</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>-251.38090181966399</v>
+      </c>
+      <c r="N3">
+        <v>796.59856023344798</v>
+      </c>
+      <c r="O3">
+        <v>-6.0687968574657001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -680,19 +721,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>1.5</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -706,10 +747,19 @@
       <c r="L4">
         <v>0.65078559723011897</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>-165.63356537414501</v>
+      </c>
+      <c r="N4">
+        <v>708.37989670482398</v>
+      </c>
+      <c r="O4">
+        <v>3.2539279861505901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -718,19 +768,19 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>1.5</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -744,10 +794,19 @@
       <c r="L5">
         <v>1.10994171589062</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>-161.599291729805</v>
+      </c>
+      <c r="N5">
+        <v>716.74141007441597</v>
+      </c>
+      <c r="O5">
+        <v>5.5497085794530898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>41</v>
@@ -756,19 +815,19 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>1.5</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -782,10 +841,19 @@
       <c r="L6">
         <v>9.1992577026721492</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>-119.73417545753399</v>
+      </c>
+      <c r="N6">
+        <v>972.66008893700803</v>
+      </c>
+      <c r="O6">
+        <v>45.996288513360803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>41</v>
@@ -794,19 +862,19 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>1.5</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -820,10 +888,19 @@
       <c r="L7">
         <v>15.4195008086434</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>-113.416368797001</v>
+      </c>
+      <c r="N7">
+        <v>974.63303029387805</v>
+      </c>
+      <c r="O7">
+        <v>77.097504043216901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -832,19 +909,19 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>1.5</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -858,10 +935,19 @@
       <c r="L8">
         <v>16.111675772032999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>-154.63446223376201</v>
+      </c>
+      <c r="N8">
+        <v>949.54849018510004</v>
+      </c>
+      <c r="O8">
+        <v>80.558378860165206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>41</v>
@@ -870,19 +956,19 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>1.5</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -896,10 +982,19 @@
       <c r="L9">
         <v>9.7434664582349608</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>-187.517585736689</v>
+      </c>
+      <c r="N9">
+        <v>965.33202104006102</v>
+      </c>
+      <c r="O9">
+        <v>48.717332291174799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>41</v>
@@ -908,19 +1003,19 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>1.5</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -934,10 +1029,19 @@
       <c r="L10">
         <v>10.2631791729293</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>-120.11477336433801</v>
+      </c>
+      <c r="N10">
+        <v>962.32563421054499</v>
+      </c>
+      <c r="O10">
+        <v>51.315895864646301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>41</v>
@@ -946,19 +1050,19 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>1.5</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -972,10 +1076,19 @@
       <c r="L11">
         <v>5.8215331131003198</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>-114.177542916875</v>
+      </c>
+      <c r="N11">
+        <v>931.228320442734</v>
+      </c>
+      <c r="O11">
+        <v>29.107665565501598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>41</v>
@@ -984,19 +1097,19 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <v>1.5</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -1010,10 +1123,19 @@
       <c r="L12">
         <v>5.5868477221435002</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>-170.42902417552199</v>
+      </c>
+      <c r="N12">
+        <v>835.77553860558498</v>
+      </c>
+      <c r="O12">
+        <v>27.9342386107175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>41</v>
@@ -1022,19 +1144,19 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>1.5</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -1048,10 +1170,19 @@
       <c r="L13">
         <v>-0.39977912928277498</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>-178.802038448009</v>
+      </c>
+      <c r="N13">
+        <v>842.53990897199697</v>
+      </c>
+      <c r="O13">
+        <v>-1.9988956464138801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>71</v>
@@ -1060,19 +1191,19 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <v>1.5</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1086,10 +1217,19 @@
       <c r="L14">
         <v>12.751049074602101</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>-57.393248185394697</v>
+      </c>
+      <c r="N14">
+        <v>491.50666679057798</v>
+      </c>
+      <c r="O14">
+        <v>25.502098149204301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>71</v>
@@ -1098,19 +1238,19 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>1.5</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1124,10 +1264,19 @@
       <c r="L15">
         <v>-4.0974106231771001</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>-69.0393577958381</v>
+      </c>
+      <c r="N15">
+        <v>492.52132234553898</v>
+      </c>
+      <c r="O15">
+        <v>-8.1948212463542003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>71</v>
@@ -1136,19 +1285,19 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G16">
         <v>1.5</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1162,10 +1311,19 @@
       <c r="L16">
         <v>16.053539821544799</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>-76.620748167276901</v>
+      </c>
+      <c r="N16">
+        <v>430.289114974548</v>
+      </c>
+      <c r="O16">
+        <v>32.107079643089598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>71</v>
@@ -1174,19 +1332,19 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G17">
         <v>1.5</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1200,10 +1358,19 @@
       <c r="L17">
         <v>21.146460656597</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>-78.858622724919798</v>
+      </c>
+      <c r="N17">
+        <v>429.01140057200303</v>
+      </c>
+      <c r="O17">
+        <v>42.292921313194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>71</v>
@@ -1212,19 +1379,19 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>1.5</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1238,10 +1405,19 @@
       <c r="L18">
         <v>-19.399034181953599</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>-33.141933322196003</v>
+      </c>
+      <c r="N18">
+        <v>542.76556223383398</v>
+      </c>
+      <c r="O18">
+        <v>-38.798068363907198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>71</v>
@@ -1250,19 +1426,19 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>1.5</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1276,10 +1452,19 @@
       <c r="L19">
         <v>-26.853115783505501</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>-31.3912109624561</v>
+      </c>
+      <c r="N19">
+        <v>543.02862108141699</v>
+      </c>
+      <c r="O19">
+        <v>-53.706231567011102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>71</v>
@@ -1288,19 +1473,19 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>1.5</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1314,10 +1499,19 @@
       <c r="L20">
         <v>-7.7207074289975797</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>-42.595833151370897</v>
+      </c>
+      <c r="N20">
+        <v>544.04327663637798</v>
+      </c>
+      <c r="O20">
+        <v>-15.4414148579952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>71</v>
@@ -1326,19 +1520,19 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G21">
         <v>1.5</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1352,10 +1546,19 @@
       <c r="L21">
         <v>-4.8060046843093298</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>-41.971663332125502</v>
+      </c>
+      <c r="N21">
+        <v>536.37699022111099</v>
+      </c>
+      <c r="O21">
+        <v>-9.6120093686186596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>71</v>
@@ -1364,19 +1567,19 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G22">
         <v>1.5</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1390,10 +1593,19 @@
       <c r="L22">
         <v>13.2549395486731</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>-55.383721410789803</v>
+      </c>
+      <c r="N22">
+        <v>512.55137459719299</v>
+      </c>
+      <c r="O22">
+        <v>26.5098790973463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>71</v>
@@ -1402,19 +1614,19 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G23">
         <v>1.5</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1428,10 +1640,19 @@
       <c r="L23">
         <v>11.4439898786933</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>-62.203928756506002</v>
+      </c>
+      <c r="N23">
+        <v>513.52845031678601</v>
+      </c>
+      <c r="O23">
+        <v>22.8879797573865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>71</v>
@@ -1440,19 +1661,19 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G24">
         <v>1.5</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1466,10 +1687,19 @@
       <c r="L24">
         <v>-28.040114867920899</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>-44.7575993931708</v>
+      </c>
+      <c r="N24">
+        <v>538.93241902620002</v>
+      </c>
+      <c r="O24">
+        <v>-56.080229735841698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>71</v>
@@ -1478,19 +1708,19 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G25">
         <v>1.5</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1504,10 +1734,19 @@
       <c r="L25">
         <v>0.54463534065961805</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>-52.765246053845203</v>
+      </c>
+      <c r="N25">
+        <v>522.02149311017001</v>
+      </c>
+      <c r="O25">
+        <v>1.0892706813192401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>96</v>
@@ -1516,19 +1755,19 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G26">
         <v>1.5</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1542,10 +1781,19 @@
       <c r="L26">
         <v>0.82100270920310503</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>-85.145999395053195</v>
+      </c>
+      <c r="N26">
+        <v>365.99001665826398</v>
+      </c>
+      <c r="O26">
+        <v>1.6420054184062101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>96</v>
@@ -1554,19 +1802,19 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G27">
         <v>1.5</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -1580,10 +1828,19 @@
       <c r="L27">
         <v>-3.5612334067100302</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>-84.354368567233607</v>
+      </c>
+      <c r="N27">
+        <v>368.24480678040101</v>
+      </c>
+      <c r="O27">
+        <v>-7.1224668134200702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>96</v>
@@ -1592,19 +1849,19 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G28">
         <v>1.5</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -1618,10 +1875,19 @@
       <c r="L28">
         <v>0.576794741746123</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>-57.621600687771199</v>
+      </c>
+      <c r="N28">
+        <v>292.295959499741</v>
+      </c>
+      <c r="O28">
+        <v>1.15358948349225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>96</v>
@@ -1630,19 +1896,19 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G29">
         <v>1.5</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -1656,10 +1922,19 @@
       <c r="L29">
         <v>-1.79000681919283</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>-61.640649974352698</v>
+      </c>
+      <c r="N29">
+        <v>294.32527060966498</v>
+      </c>
+      <c r="O29">
+        <v>-3.5800136383856702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>96</v>
@@ -1668,19 +1943,19 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G30">
         <v>1.5</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1694,10 +1969,19 @@
       <c r="L30">
         <v>-36.568488187091802</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>-34.8774388598952</v>
+      </c>
+      <c r="N30">
+        <v>549.71783177709096</v>
+      </c>
+      <c r="O30">
+        <v>-73.136976374183604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>96</v>
@@ -1706,19 +1990,19 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G31">
         <v>1.5</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1732,10 +2016,19 @@
       <c r="L31">
         <v>-35.835428538676901</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>-42.945976557661801</v>
+      </c>
+      <c r="N31">
+        <v>554.15225235062701</v>
+      </c>
+      <c r="O31">
+        <v>-71.670857077353801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>96</v>
@@ -1744,19 +2037,19 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>1.5</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -1770,10 +2063,19 @@
       <c r="L32">
         <v>-42.4995547649876</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>-30.3864496303495</v>
+      </c>
+      <c r="N32">
+        <v>563.88542971118704</v>
+      </c>
+      <c r="O32">
+        <v>-84.9991095299752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>96</v>
@@ -1782,19 +2084,19 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G33">
         <v>1.5</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -1808,10 +2110,19 @@
       <c r="L33">
         <v>-24.427957359224798</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>-83.562742458752595</v>
+      </c>
+      <c r="N33">
+        <v>538.66936017861804</v>
+      </c>
+      <c r="O33">
+        <v>-48.855914718449696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>96</v>
@@ -1820,19 +2131,19 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G34">
         <v>1.5</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -1846,10 +2157,19 @@
       <c r="L34">
         <v>-33.234382307094798</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>-37.054417813344202</v>
+      </c>
+      <c r="N34">
+        <v>550.92038650889697</v>
+      </c>
+      <c r="O34">
+        <v>-66.468764614189595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>96</v>
@@ -1858,19 +2178,19 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>1.5</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -1884,10 +2204,19 @@
       <c r="L35">
         <v>-8.7570378400155207</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>-42.2761373949402</v>
+      </c>
+      <c r="N35">
+        <v>526.86929187276496</v>
+      </c>
+      <c r="O35">
+        <v>-17.514075680030999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>96</v>
@@ -1896,19 +2225,19 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G36">
         <v>1.5</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1922,10 +2251,19 @@
       <c r="L36">
         <v>3.42568156719339</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>-51.638697928215798</v>
+      </c>
+      <c r="N36">
+        <v>516.98579517072994</v>
+      </c>
+      <c r="O36">
+        <v>6.8513631343867702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>96</v>
@@ -1934,19 +2272,19 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G37">
         <v>1.5</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -1960,10 +2298,19 @@
       <c r="L37">
         <v>-11.627651253926</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>-45.762360725277397</v>
+      </c>
+      <c r="N37">
+        <v>510.82270217022102</v>
+      </c>
+      <c r="O37">
+        <v>-23.255302507851901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -1972,19 +2319,19 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G38">
         <v>1.5</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -1998,10 +2345,19 @@
       <c r="L38">
         <v>13.0504524528923</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>-229.725223226807</v>
+      </c>
+      <c r="N38">
+        <v>995.02009098153599</v>
+      </c>
+      <c r="O38">
+        <v>65.252262264461294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -2010,19 +2366,19 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G39">
         <v>1.5</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I39">
         <v>5</v>
@@ -2036,10 +2392,19 @@
       <c r="L39">
         <v>10.525723045402501</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>-280.99094178298202</v>
+      </c>
+      <c r="N39">
+        <v>1043.9678265496</v>
+      </c>
+      <c r="O39">
+        <v>52.628615227012702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -2048,19 +2413,19 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G40">
         <v>1.5</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -2074,10 +2439,19 @@
       <c r="L40">
         <v>8.9712661867286307</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>-151.66585328979599</v>
+      </c>
+      <c r="N40">
+        <v>912.15655399298805</v>
+      </c>
+      <c r="O40">
+        <v>44.8563309336432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -2086,19 +2460,19 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G41">
         <v>1.5</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -2112,10 +2486,19 @@
       <c r="L41">
         <v>8.1971651637863907</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>-178.040841873218</v>
+      </c>
+      <c r="N41">
+        <v>921.17571448153797</v>
+      </c>
+      <c r="O41">
+        <v>40.9858258189319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -2124,19 +2507,19 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G42">
         <v>1.5</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -2150,10 +2533,19 @@
       <c r="L42">
         <v>16.7948635561735</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>-98.421047007501301</v>
+      </c>
+      <c r="N42">
+        <v>985.71908172771998</v>
+      </c>
+      <c r="O42">
+        <v>83.974317780867594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>12</v>
@@ -2162,19 +2554,19 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G43">
         <v>1.5</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -2188,10 +2580,19 @@
       <c r="L43">
         <v>9.4357336649863495</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>-99.410591060857101</v>
+      </c>
+      <c r="N43">
+        <v>981.30345107186804</v>
+      </c>
+      <c r="O43">
+        <v>47.178668324931699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>12</v>
@@ -2200,19 +2601,19 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G44">
         <v>1.5</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -2226,10 +2627,19 @@
       <c r="L44">
         <v>24.275750558667699</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>-155.623995630547</v>
+      </c>
+      <c r="N44">
+        <v>928.69168155532896</v>
+      </c>
+      <c r="O44">
+        <v>121.378752793339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>12</v>
@@ -2238,19 +2648,19 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G45">
         <v>1.5</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I45">
         <v>5</v>
@@ -2264,10 +2674,19 @@
       <c r="L45">
         <v>20.189290168906201</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>-106.451528263795</v>
+      </c>
+      <c r="N45">
+        <v>955.091515902021</v>
+      </c>
+      <c r="O45">
+        <v>100.946450844531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>12</v>
@@ -2276,19 +2695,19 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G46">
         <v>1.5</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I46">
         <v>5</v>
@@ -2302,10 +2721,19 @@
       <c r="L46">
         <v>16.361162434714899</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>-124.034873269396</v>
+      </c>
+      <c r="N46">
+        <v>1035.1365652379</v>
+      </c>
+      <c r="O46">
+        <v>81.805812173574395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>12</v>
@@ -2314,19 +2742,19 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G47">
         <v>1.5</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I47">
         <v>5</v>
@@ -2340,10 +2768,19 @@
       <c r="L47">
         <v>11.5752202935935</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>-122.36027498200001</v>
+      </c>
+      <c r="N47">
+        <v>1036.4518594758099</v>
+      </c>
+      <c r="O47">
+        <v>57.876101467967501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>12</v>
@@ -2352,19 +2789,19 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G48">
         <v>1.5</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I48">
         <v>5</v>
@@ -2378,10 +2815,19 @@
       <c r="L48">
         <v>5.5659034757972901</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>-129.17286470637401</v>
+      </c>
+      <c r="N48">
+        <v>933.76495933013803</v>
+      </c>
+      <c r="O48">
+        <v>27.829517378986399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -2390,19 +2836,19 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G49">
         <v>1.5</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I49">
         <v>5</v>
@@ -2415,6 +2861,15 @@
       </c>
       <c r="L49">
         <v>5.8092300026267996</v>
+      </c>
+      <c r="M49">
+        <v>-160.83810695336001</v>
+      </c>
+      <c r="N49">
+        <v>921.08176489311495</v>
+      </c>
+      <c r="O49">
+        <v>29.046150013134</v>
       </c>
     </row>
   </sheetData>
